--- a/solutionregistry HEL 2 .xlsx
+++ b/solutionregistry HEL 2 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66FB0232-891E-4F4E-9027-31E4E60B6B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E1A2EC-CE3E-476E-AB78-D4D0DF113D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="410">
   <si>
     <t>solution_name</t>
   </si>
@@ -1250,6 +1250,9 @@
   </si>
   <si>
     <t>National Ski Patrol - Outdoor Emergency Care chapter 9</t>
+  </si>
+  <si>
+    <t>Solution for classification of  Penguin species</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1659,7 @@
   <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3129,7 +3132,7 @@
         <v>223</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>296</v>
